--- a/trials_waiwera/minc/minc_5_spot/plotd_project/1982-witherspoon-energy recovery by water injection-fig10-data.xlsx
+++ b/trials_waiwera/minc/minc_5_spot/plotd_project/1982-witherspoon-energy recovery by water injection-fig10-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/duggalrohi_myvuw_ac_nz/Documents/wai_sim/simulation/trials/minc/minc_5_spot/plotd_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/duggalrohi_myvuw_ac_nz/Documents/wai_sim/simulation/trials_waiwera/minc/minc_5_spot/plotd_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1018" documentId="8_{156D23E5-B28C-4D3D-98CC-F0B15EDA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548525E2-9AB4-4E2B-97BC-3403A498F387}"/>
+  <xr:revisionPtr revIDLastSave="1020" documentId="8_{156D23E5-B28C-4D3D-98CC-F0B15EDA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDF93A8-DF37-4D20-AE1C-89DC5FE08807}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5DD71D0A-A528-4ED7-A340-2EFFD9B464A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{5DD71D0A-A528-4ED7-A340-2EFFD9B464A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7715,7 +7715,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$L$15</c15:sqref>
@@ -7756,7 +7756,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$K$16:$K$27</c15:sqref>
@@ -7807,7 +7807,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$L$16:$L$27</c15:sqref>
@@ -7857,7 +7857,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8187-4A7A-82B3-4856B8504CC0}"/>
                   </c:ext>
@@ -7870,7 +7870,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$V$15</c15:sqref>
@@ -7912,7 +7912,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$U$16:$U$27</c15:sqref>
@@ -7963,7 +7963,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$V$16:$V$27</c15:sqref>
@@ -8013,7 +8013,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-8187-4A7A-82B3-4856B8504CC0}"/>
                   </c:ext>
@@ -8901,7 +8901,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$H$1</c15:sqref>
@@ -8943,7 +8943,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$G$2:$G$12</c15:sqref>
@@ -8991,7 +8991,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$H$2:$H$12</c15:sqref>
@@ -9038,7 +9038,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-8187-4A7A-82B3-4856B8504CC0}"/>
                   </c:ext>
@@ -9051,7 +9051,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$L$1</c15:sqref>
@@ -9093,7 +9093,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$K$2:$K$14</c15:sqref>
@@ -9144,7 +9144,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$L$2:$L$13</c15:sqref>
@@ -9194,7 +9194,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-8187-4A7A-82B3-4856B8504CC0}"/>
                   </c:ext>
@@ -9207,7 +9207,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$R$1</c15:sqref>
@@ -9254,7 +9254,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$Q$2:$Q$12</c15:sqref>
@@ -9302,7 +9302,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$R$2:$R$12</c15:sqref>
@@ -9349,7 +9349,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-8187-4A7A-82B3-4856B8504CC0}"/>
                   </c:ext>
@@ -9362,7 +9362,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$V$1</c15:sqref>
@@ -9409,7 +9409,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$U$2:$U$13</c15:sqref>
@@ -9460,7 +9460,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$V$2:$V$13</c15:sqref>
@@ -9510,7 +9510,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-8187-4A7A-82B3-4856B8504CC0}"/>
                   </c:ext>
@@ -9523,7 +9523,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$AB$1</c15:sqref>
@@ -9570,7 +9570,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$AA$2:$AA$12</c15:sqref>
@@ -9618,7 +9618,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>validation!$AB$2:$AB$12</c15:sqref>
@@ -9665,7 +9665,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-8187-4A7A-82B3-4856B8504CC0}"/>
                   </c:ext>
@@ -17551,16 +17551,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>681036</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20644,8 +20644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C03297-68D1-4CBC-9F09-124F29CED069}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S45" workbookViewId="0">
-      <selection activeCell="Y68" sqref="Y68"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trials_waiwera/minc/minc_5_spot/plotd_project/1982-witherspoon-energy recovery by water injection-fig10-data.xlsx
+++ b/trials_waiwera/minc/minc_5_spot/plotd_project/1982-witherspoon-energy recovery by water injection-fig10-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/duggalrohi_myvuw_ac_nz/Documents/wai_sim/simulation/trials_waiwera/minc/minc_5_spot/plotd_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1020" documentId="8_{156D23E5-B28C-4D3D-98CC-F0B15EDA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDF93A8-DF37-4D20-AE1C-89DC5FE08807}"/>
+  <xr:revisionPtr revIDLastSave="1444" documentId="8_{156D23E5-B28C-4D3D-98CC-F0B15EDA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D9C57A-1018-4CF0-9123-1216FF0F2D72}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{5DD71D0A-A528-4ED7-A340-2EFFD9B464A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="12" activeTab="13" xr2:uid="{5DD71D0A-A528-4ED7-A340-2EFFD9B464A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Sheet4" sheetId="6" r:id="rId11"/>
     <sheet name="volsung_minc_50d" sheetId="8" r:id="rId12"/>
     <sheet name="volsung_minc_0d" sheetId="9" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>xporT</t>
   </si>
@@ -211,6 +212,75 @@
   <si>
     <t>Temperature 250 m fracture spacing (TOUGH2 manual)</t>
   </si>
+  <si>
+    <t> 46.76</t>
+  </si>
+  <si>
+    <t> 103.24</t>
+  </si>
+  <si>
+    <t> 174.1</t>
+  </si>
+  <si>
+    <t> 247.77</t>
+  </si>
+  <si>
+    <t> 317.48</t>
+  </si>
+  <si>
+    <t> 384.4</t>
+  </si>
+  <si>
+    <t> 459.02</t>
+  </si>
+  <si>
+    <t> 526.97</t>
+  </si>
+  <si>
+    <t> 604.77</t>
+  </si>
+  <si>
+    <t> 658.66</t>
+  </si>
+  <si>
+    <t> 687.55</t>
+  </si>
+  <si>
+    <t>xP250</t>
+  </si>
+  <si>
+    <t>xT250</t>
+  </si>
+  <si>
+    <t>xP250V</t>
+  </si>
+  <si>
+    <t>xW</t>
+  </si>
+  <si>
+    <t>xTOU</t>
+  </si>
+  <si>
+    <t>Pressure (Volsung)</t>
+  </si>
+  <si>
+    <t>Temperature (Volsung)</t>
+  </si>
+  <si>
+    <t>Pressure (Waiwera)</t>
+  </si>
+  <si>
+    <t>Temperature (Waiwera)</t>
+  </si>
+  <si>
+    <t>Temperature (Pruess et al., 1999)</t>
+  </si>
+  <si>
+    <t>Pressure (Witherspoon et al., 1982)</t>
+  </si>
+  <si>
+    <t>Temperature (Witherspoon et al., 1982)</t>
+  </si>
 </sst>
 </file>
 
@@ -219,12 +289,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -256,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12900,6 +12982,1340 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pressure (Witherspoon et al., 1982)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>247.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>459.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>526.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>604.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>658.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>687.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91E1-4604-B295-4D204DC2E420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pressure (Waiwera)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>671.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-91E1-4604-B295-4D204DC2E420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2001698719"/>
+        <c:axId val="2000368799"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pressure (Volsung)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>671.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$3:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-91E1-4604-B295-4D204DC2E420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2001698719"/>
+        <c:axId val="2000368799"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature (Witherspoon et al., 1982)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>460.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>527.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>656.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>689.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>274.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>266.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-91E1-4604-B295-4D204DC2E420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature (Waiwera)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>671.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$O$3:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>121.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>251.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262.988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.47000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240.108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-91E1-4604-B295-4D204DC2E420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature (Pruess et al., 1999)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>707.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>636.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>565.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>494.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>356.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$S$3:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>119.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-91E1-4604-B295-4D204DC2E420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1995575455"/>
+        <c:axId val="1995578783"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature (Volsung)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>671.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-91E1-4604-B295-4D204DC2E420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1995575455"/>
+        <c:axId val="1995578783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2001698719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="705"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Distance between production and injection well, m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000368799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2000368799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Pressure, MPa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001698719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1995578783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="275"/>
+          <c:min val="115"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Temperature, ℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-NZ" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1995575455"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1995575455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1995578783"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13181,6 +14597,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17468,6 +18924,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17765,6 +19737,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F98AF9-2F5E-40BF-BA4A-0C34D30F2C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98FB761-A5B3-4005-9227-4A2BC07B6191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20640,11 +22653,525 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A8ED3-DDC3-47B2-B6DC-BD61D8FEABA4}">
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="B3" s="7">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6.14</v>
+      </c>
+      <c r="E3" s="7">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>274.89</v>
+      </c>
+      <c r="H3" s="7">
+        <v>671.75</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7.24</v>
+      </c>
+      <c r="K3" s="7">
+        <v>121.1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>671.75</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7.23</v>
+      </c>
+      <c r="O3" s="2">
+        <v>121.09</v>
+      </c>
+      <c r="R3" s="7">
+        <v>707.1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>119.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>46.76</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.48</v>
+      </c>
+      <c r="E4" s="2">
+        <v>48.08</v>
+      </c>
+      <c r="F4" s="2">
+        <v>269.87</v>
+      </c>
+      <c r="H4" s="2">
+        <v>601.04</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6.55</v>
+      </c>
+      <c r="K4" s="2">
+        <v>135.28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>601.04</v>
+      </c>
+      <c r="N4" s="5">
+        <v>6.54</v>
+      </c>
+      <c r="O4" s="2">
+        <v>135.203</v>
+      </c>
+      <c r="R4" s="2">
+        <v>636.96</v>
+      </c>
+      <c r="S4" s="2">
+        <v>124.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <v>103.24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>103.96</v>
+      </c>
+      <c r="F5" s="2">
+        <v>266.83999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>530.33000000000004</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>158.35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>530.33000000000004</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6.26</v>
+      </c>
+      <c r="O5" s="2">
+        <v>158.178</v>
+      </c>
+      <c r="R5" s="2">
+        <v>565.67999999999995</v>
+      </c>
+      <c r="S5" s="2">
+        <v>138.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <v>174.1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.93</v>
+      </c>
+      <c r="E6" s="2">
+        <v>175.17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>260.57</v>
+      </c>
+      <c r="H6" s="2">
+        <v>459.62</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="K6" s="2">
+        <v>186.52</v>
+      </c>
+      <c r="M6" s="2">
+        <v>459.62</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6.09</v>
+      </c>
+      <c r="O6" s="2">
+        <v>186.245</v>
+      </c>
+      <c r="R6" s="2">
+        <v>494.4</v>
+      </c>
+      <c r="S6" s="2">
+        <v>161.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2">
+        <v>247.77</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="E7" s="2">
+        <v>250.1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>250.79</v>
+      </c>
+      <c r="H7" s="2">
+        <v>388.91</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="K7" s="2">
+        <v>214.03</v>
+      </c>
+      <c r="M7" s="2">
+        <v>388.91</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5.96</v>
+      </c>
+      <c r="O7" s="2">
+        <v>213.64</v>
+      </c>
+      <c r="R7" s="2">
+        <v>425.39</v>
+      </c>
+      <c r="S7" s="2">
+        <v>189.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>317.48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>319.98</v>
+      </c>
+      <c r="F8" s="2">
+        <v>235.19</v>
+      </c>
+      <c r="H8" s="2">
+        <v>318.2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.86</v>
+      </c>
+      <c r="K8" s="2">
+        <v>236.41</v>
+      </c>
+      <c r="M8" s="2">
+        <v>318.2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5.86</v>
+      </c>
+      <c r="O8" s="2">
+        <v>235.95</v>
+      </c>
+      <c r="R8" s="2">
+        <v>356.38</v>
+      </c>
+      <c r="S8" s="2">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2">
+        <v>384.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>384.68</v>
+      </c>
+      <c r="F9" s="2">
+        <v>210.57</v>
+      </c>
+      <c r="H9" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="K9" s="2">
+        <v>252.42</v>
+      </c>
+      <c r="M9" s="2">
+        <v>247.49</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5.74</v>
+      </c>
+      <c r="O9" s="2">
+        <v>251.95699999999999</v>
+      </c>
+      <c r="R9" s="2">
+        <v>286.23</v>
+      </c>
+      <c r="S9" s="2">
+        <v>237.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <v>459.02</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.36</v>
+      </c>
+      <c r="E10" s="2">
+        <v>460.93</v>
+      </c>
+      <c r="F10" s="2">
+        <v>184.75</v>
+      </c>
+      <c r="H10" s="2">
+        <v>176.8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.58</v>
+      </c>
+      <c r="K10" s="2">
+        <v>263.38</v>
+      </c>
+      <c r="M10" s="2">
+        <v>176.78</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5.57</v>
+      </c>
+      <c r="O10" s="2">
+        <v>262.988</v>
+      </c>
+      <c r="R10" s="2">
+        <v>213.83</v>
+      </c>
+      <c r="S10" s="2">
+        <v>255.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
+        <v>526.97</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.53</v>
+      </c>
+      <c r="E11" s="2">
+        <v>527.44000000000005</v>
+      </c>
+      <c r="F11" s="2">
+        <v>156.91999999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>106</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>267.68</v>
+      </c>
+      <c r="M11" s="2">
+        <v>106.07</v>
+      </c>
+      <c r="N11" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="O11" s="2">
+        <v>267.47000000000003</v>
+      </c>
+      <c r="R11" s="2">
+        <v>142.55000000000001</v>
+      </c>
+      <c r="S11" s="2">
+        <v>265.45999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>604.77</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="E12" s="2">
+        <v>605.72</v>
+      </c>
+      <c r="F12" s="2">
+        <v>133.72</v>
+      </c>
+      <c r="H12" s="2">
+        <v>35.35</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="K12" s="2">
+        <v>240.79</v>
+      </c>
+      <c r="M12" s="2">
+        <v>35.35</v>
+      </c>
+      <c r="N12" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="O12" s="2">
+        <v>240.108</v>
+      </c>
+      <c r="R12" s="2">
+        <v>72.41</v>
+      </c>
+      <c r="S12" s="2">
+        <v>258.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2">
+        <v>658.66</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E13" s="2">
+        <v>656.42</v>
+      </c>
+      <c r="F13" s="2">
+        <v>121.67</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>206.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <v>687.55</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.84</v>
+      </c>
+      <c r="E14" s="2">
+        <v>689.1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>117.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C03297-68D1-4CBC-9F09-124F29CED069}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>

--- a/trials_waiwera/minc/minc_5_spot/plotd_project/1982-witherspoon-energy recovery by water injection-fig10-data.xlsx
+++ b/trials_waiwera/minc/minc_5_spot/plotd_project/1982-witherspoon-energy recovery by water injection-fig10-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/duggalrohi_myvuw_ac_nz/Documents/wai_sim/simulation/trials_waiwera/minc/minc_5_spot/plotd_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1444" documentId="8_{156D23E5-B28C-4D3D-98CC-F0B15EDA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D9C57A-1018-4CF0-9123-1216FF0F2D72}"/>
+  <xr:revisionPtr revIDLastSave="1460" documentId="8_{156D23E5-B28C-4D3D-98CC-F0B15EDA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC328FF-3712-45B5-B010-08E5DF4D59F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="12" activeTab="13" xr2:uid="{5DD71D0A-A528-4ED7-A340-2EFFD9B464A7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5DD71D0A-A528-4ED7-A340-2EFFD9B464A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4153,1158 +4153,6 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure porous medium (Bodvarsson et al., 1982)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$A$16:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>19.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>174.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>249.53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>319.31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>385.27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>459.82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>529.67999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>607.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>659.56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>687.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$B$16:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.66</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure porous medium (Volsung)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$D$16:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$E$16:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.36904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1918499999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8469799999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1680899999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.2898099999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3912599999999991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4984099999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6582299999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9656199999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.68628</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$F$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure porous medium (Waiwera)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$D$16:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$F$16:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.2927233667548101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1769972157289699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8628269233531896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2158648522307107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3390191641259896</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4428522696307393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.55138527299024</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7176745652277194</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0310064758477893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7446832195945898</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure 50 m fracture spacing (Bodvarsson et al., 1982)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$K$16:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>17.23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>174.84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>249.52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>319.22000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>386.12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>459.76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>527.67999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>606.49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>658.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>687.11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$L$16:$L$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.43</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$O$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure 50 m fracture spacing (Volsung)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$N$16:$N$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$O$16:$O$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.9588700000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.51959</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0561399999999992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2471899999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3633199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4631399999999992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5722199999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7362500000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0448699999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7653099999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$P$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure 50 m fracture spacing (Waiwera)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$N$16:$N$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$P$16:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.9930653179312401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5408054102153104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0772138064450907</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2771441289982892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3936219750560692</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4933898065914093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6017653078938601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.76509515836681</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0720011584478897</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7847815347832601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$V$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure 250 m fracture spacing (Bodvarsson et al., 1982)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$U$16:$U$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>18.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>174.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>247.77</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>317.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>384.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>459.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>526.97</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>604.77</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>658.66</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>687.55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$V$16:$V$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>6.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.2899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$Y$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure 250 m fracture spacing (Volsung)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$X$16:$X$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$Y$16:$Y$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.39358</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3058699999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5789299999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7422300000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8615699999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9700499999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0924699999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2624699999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5493299999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2419500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$Z$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pressure 250 m fracture spacing (Waiwera)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$X$16:$X$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$Z$16:$Z$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.3541987457921101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2915661248347501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5701677337202398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7357922785062598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8561307432025203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9647745956592004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0867093985062999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2555161411092204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5398353246688199</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2254382055246698</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5315,6 +4163,1342 @@
         </c:dLbls>
         <c:axId val="587456800"/>
         <c:axId val="587478848"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure porous medium (Bodvarsson et al., 1982)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$A$16:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>19.64</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47.97</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>104.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>174.85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>249.53</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>319.31</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>385.27</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>459.82</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>529.67999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>607.54999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>659.56</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>687.3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$B$16:$B$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.64</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.55</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.0399999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.19</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.43</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.66</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.92</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$E$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure porous medium (Volsung)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$D$16:$D$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$E$16:$E$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>5.36904</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.1918499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.8469799999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.1680899999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.2898099999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3912599999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.4984099999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.6582299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.9656199999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.68628</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$F$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure porous medium (Waiwera)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$D$16:$D$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$F$16:$F$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>5.2927233667548101</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.1769972157289699</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.8628269233531896</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.2158648522307107</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.3390191641259896</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.4428522696307393</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.55138527299024</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.7176745652277194</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.0310064758477893</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.7446832195945898</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure 50 m fracture spacing (Bodvarsson et al., 1982)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="plus"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$K$16:$K$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>17.23</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>102.73</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>174.84</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>249.52</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>319.22000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>386.12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>459.76</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>527.67999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>606.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>658.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>687.11</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$L$16:$L$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>5.53</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.83</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.67</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.0299999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.4600000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.6199999999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.94</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.43</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.8000000000000007</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$O$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure 50 m fracture spacing (Volsung)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="dot"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$N$16:$N$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$O$16:$O$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>5.9588700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.51959</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.0561399999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.2471899999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.3633199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.4631399999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.5722199999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.7362500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.0448699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.7653099999999995</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$P$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure 50 m fracture spacing (Waiwera)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="dash"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$N$16:$N$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$P$16:$P$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>5.9930653179312401</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.5408054102153104</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.0772138064450907</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.2771441289982892</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.3936219750560692</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.4933898065914093</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.6017653078938601</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.76509515836681</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.0720011584478897</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.7847815347832601</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$V$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure 250 m fracture spacing (Bodvarsson et al., 1982)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$U$16:$U$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>18.190000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>46.76</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>103.24</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>174.1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>247.77</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>317.48</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>384.4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>459.02</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>526.97</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>604.77</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>658.66</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>687.55</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$V$16:$V$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>6.14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.48</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.93</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.36</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.53</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.83</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.2899999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.84</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Y$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure 250 m fracture spacing (Volsung)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$X$16:$X$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Y$16:$Y$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>3.39358</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.3058699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.5789299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.7422300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.8615699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.9700499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0924699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.2624699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.5493299999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.2419500000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Z$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pressure 250 m fracture spacing (Waiwera)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$X$16:$X$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Z$16:$Z$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>3.3541987457921101</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.2915661248347501</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.5701677337202398</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.7357922785062598</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.8561307432025203</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.9647745956592004</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0867093985062999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.2555161411092204</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.5398353246688199</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.2254382055246698</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5335,11 +5519,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5349,11 +5529,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="15875">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -5472,31 +5652,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5598,31 +5763,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5725,11 +5875,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5738,10 +5884,16 @@
             <c:symbol val="x"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln w="15875">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -5839,1064 +5991,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 50 m fracture spacing (Bodvarsson et al., 1982)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$K$2:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>176.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>248.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>318.88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>385.69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>458.49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>527.84</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>606.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>656.23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>686.14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$L$2:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>268.77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>283.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>290.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>294.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>281.83999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>261.58999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>221.49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>167.41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>127.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>116.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 50 m fracture spacing (Volsung)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$N$2:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$O$2:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>275.13799999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>290.71600000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>295.49799999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>295.40499999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>287.89800000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267.30799999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>222.697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>161.52000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>123.977</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>117.60299999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 50 m fracture spacing (Waiwera)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$N$2:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$P$2:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>275.47418386521099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>290.86916965347598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>295.63921940628597</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>295.85157538984902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>288.57282376663102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267.882453999044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>222.31143863673501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160.19110655206299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>123.41126804076799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>117.598553341046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 50 m fracture spacing (TOUGH2 manual)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$Q$2:$Q$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.1313599999999699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.275679999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.68271999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>213.82704000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>283.97136</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>356.37839999999898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>425.39136000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>493.27296000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>564.54863999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>635.82431999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>708.23136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$R$2:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>264.432989690721</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>286.59793814432902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>291.75257731958698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>290.20618556700998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>281.95876288659701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>263.917525773195</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229.381443298969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>177.83505154639101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>133.505154639175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>119.587628865979</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>117.01030927834999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 250 m fracture spacing (Bodvarsson et al., 1982)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$U$2:$U$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>19.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>175.17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>319.98</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>384.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>460.93</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>527.44000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>605.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>656.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>689.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$V$2:$V$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>274.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>269.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>266.83999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>260.57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>235.19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210.57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>184.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>156.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>133.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>121.67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>117.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 250 m fracture spacing (Volsung)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$X$2:$X$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$Y$2:$Y$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>240.79300000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>267.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>263.37799999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>252.417</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>236.41200000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>214.029</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>186.52099999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.34800000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135.28200000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121.09399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 250 m fracture spacing (Waiwera)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$X$2:$X$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35.355339059327378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.06601717798213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.77669529663689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247.48737341529164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.1980515339464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388.90872965260115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>459.61940777125591</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.33008588991061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601.04076400856536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>671.75144212722012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$Z$2:$Z$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>240.108051899625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>267.47543838100501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>262.98899776098301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>251.95749550104301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>235.950663095555</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213.63768441395899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>186.24512785743099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.178995904347</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135.20339699087901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121.09037712727</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>validation!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature 250 m fracture spacing (TOUGH2 manual)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>validation!$AA$2:$AA$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.407038999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.55135999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>213.82704000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>286.23408000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>356.37839000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>425.39136000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>494.40431999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>565.67999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>636.95568000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>707.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>validation!$AB$2:$AB$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>206.70103092783501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>258.247422680412</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>265.46391752577301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255.15463917525699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>237.628865979381</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>216.494845360824</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>189.175257731958</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>161.34020618556701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>138.65979381443299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>124.742268041237</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>119.587628865979</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-B779-4F24-A605-52E8886969E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6907,6 +6001,1228 @@
         </c:dLbls>
         <c:axId val="587485920"/>
         <c:axId val="587486752"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 50 m fracture spacing (Bodvarsson et al., 1982)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$K$2:$K$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>18.100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47.63</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>101.99</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>176.47</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>248.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>318.88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>385.69</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>458.49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>527.84</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>606.46</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>656.23</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>686.14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$L$2:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>268.77</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>283.27999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>290.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>294.38</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>290.74</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>281.83999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>261.58999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>221.49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>167.41</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>127.89</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>116.71</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>116.06</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$O$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 50 m fracture spacing (Volsung)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$N$2:$N$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$O$2:$O$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>275.13799999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>290.71600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>295.49799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>295.40499999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>287.89800000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>267.30799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>222.697</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>161.52000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>123.977</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>117.60299999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$P$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 50 m fracture spacing (Waiwera)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="plus"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$N$2:$N$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$P$2:$P$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>275.47418386521099</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>290.86916965347598</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>295.63921940628597</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>295.85157538984902</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>288.57282376663102</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>267.882453999044</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>222.31143863673501</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>160.19110655206299</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>123.41126804076799</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>117.598553341046</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$R$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 50 m fracture spacing (TOUGH2 manual)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="dot"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Q$2:$Q$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1.1313599999999699</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>71.275679999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>143.68271999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>213.82704000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>283.97136</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>356.37839999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>425.39136000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>493.27296000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>564.54863999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>635.82431999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>708.23136</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$R$2:$R$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>264.432989690721</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>286.59793814432902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>291.75257731958698</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>290.20618556700998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>281.95876288659701</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>263.917525773195</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>229.381443298969</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>177.83505154639101</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>133.505154639175</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>119.587628865979</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>117.01030927834999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$V$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 250 m fracture spacing (Bodvarsson et al., 1982)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="dash"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$U$2:$U$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>19.309999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>48.08</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>103.96</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>175.17</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>250.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>319.98</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>384.68</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>460.93</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>527.44000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>605.72</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>656.42</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>689.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$V$2:$V$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>274.89</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>269.87</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>266.83999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>260.57</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>250.79</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>235.19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>210.57</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>184.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>156.91999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>133.72</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>121.67</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>117.81</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 250 m fracture spacing (Volsung)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$X$2:$X$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Y$2:$Y$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>240.79300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>267.68</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>263.37799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>252.417</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>236.41200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>214.029</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>186.52099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>158.34800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>135.28200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>121.09399999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 250 m fracture spacing (Waiwera)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$X$2:$X$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>35.355339059327378</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>106.06601717798213</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>176.77669529663689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>247.48737341529164</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>318.1980515339464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>388.90872965260115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>459.61940777125591</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>530.33008588991061</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>601.04076400856536</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>671.75144212722012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$Z$2:$Z$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>240.108051899625</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>267.47543838100501</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>262.98899776098301</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>251.95749550104301</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>235.950663095555</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>213.63768441395899</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>186.24512785743099</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>158.178995904347</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>135.20339699087901</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>121.09037712727</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$AB$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Temperature 250 m fracture spacing (TOUGH2 manual)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="15875">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$AA$2:$AA$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>72.407038999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>142.55135999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>213.82704000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>286.23408000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>356.37839000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>425.39136000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>494.40431999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>565.67999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>636.95568000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>707.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>validation!$AB$2:$AB$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>206.70103092783501</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>258.247422680412</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>265.46391752577301</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>255.15463917525699</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>237.628865979381</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>216.494845360824</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>189.175257731958</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>161.34020618556701</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>138.65979381443299</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>124.742268041237</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>119.587628865979</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-B779-4F24-A605-52E8886969E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="587456800"/>
@@ -12998,7 +13314,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10546405228758168"/>
+          <c:y val="2.883261453673433E-2"/>
+          <c:w val="0.77861437908496733"/>
+          <c:h val="0.7267270709819198"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -19523,16 +19849,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22657,7 +22983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A8ED3-DDC3-47B2-B6DC-BD61D8FEABA4}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -23171,7 +23497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C03297-68D1-4CBC-9F09-124F29CED069}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
